--- a/data/trans_camb/IP16A03-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP16A03-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,28; 7,47</t>
+          <t>-15,98; 7,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 31,11</t>
+          <t>-10,07; 36,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 29,02</t>
+          <t>-9,66; 29,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,43; 15,35</t>
+          <t>-8,59; 12,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,58; 13,84</t>
+          <t>-11,32; 15,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-19,67; 0,0</t>
+          <t>-19,55; 0,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 6,29</t>
+          <t>-9,07; 6,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 12,33</t>
+          <t>-7,83; 13,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 14,75</t>
+          <t>-8,05; 13,18</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 308,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 817,36</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,59; 1,64</t>
+          <t>-9,26; 2,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,73; -0,88</t>
+          <t>-10,81; -0,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,59; 1,12</t>
+          <t>-8,74; 1,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 3,53</t>
+          <t>-7,63; 3,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,08; -0,94</t>
+          <t>-10,66; -1,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 0,98</t>
+          <t>-8,77; 0,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 0,81</t>
+          <t>-6,56; 1,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,94; -1,92</t>
+          <t>-8,22; -2,12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 0,02</t>
+          <t>-7,65; -0,34</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-89,4; 76,61</t>
+          <t>-90,58; 104,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 27,59</t>
+          <t>-100,0; 44,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-85,46; 37,07</t>
+          <t>-84,16; 55,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-77,69; 134,73</t>
+          <t>-79,89; 146,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 10,59</t>
+          <t>-100,0; -13,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 73,73</t>
+          <t>-100,0; 76,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-75,02; 24,59</t>
+          <t>-73,97; 47,73</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-95,4; -36,61</t>
+          <t>-95,56; -40,27</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-80,88; 7,13</t>
+          <t>-82,01; 1,1</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-13,69; 5,88</t>
+          <t>-14,06; 5,51</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 17,51</t>
+          <t>-7,34; 17,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-19,51; -2,09</t>
+          <t>-18,78; -2,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,54; 5,99</t>
+          <t>-12,11; 5,95</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,61; 3,21</t>
+          <t>-15,36; 4,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,93; 1,06</t>
+          <t>-16,15; 0,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-10,16; 3,64</t>
+          <t>-10,03; 3,64</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 8,76</t>
+          <t>-6,7; 8,93</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-13,59; -1,98</t>
+          <t>-13,01; -2,01</t>
         </is>
       </c>
     </row>
@@ -1439,12 +1439,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 394,47</t>
+          <t>-100,0; 367,66</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-72,82; 528,19</t>
+          <t>-67,51; 704,22</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-84,46; 154,83</t>
+          <t>-83,32; 154,9</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-68,08; 286,63</t>
+          <t>-66,08; 243,38</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -5,97</t>
+          <t>-100,0; 2,76</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 1,11</t>
+          <t>-7,96; 0,89</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 2,42</t>
+          <t>-7,28; 2,59</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 0,12</t>
+          <t>-7,97; -0,09</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 2,62</t>
+          <t>-5,55; 2,7</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,76; -0,7</t>
+          <t>-8,5; -0,44</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,04; -0,54</t>
+          <t>-8,15; -0,47</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 0,55</t>
+          <t>-5,65; 0,61</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-6,05; -0,2</t>
+          <t>-6,23; -0,25</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-7,18; -1,39</t>
+          <t>-7,12; -1,58</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-78,19; 29,18</t>
+          <t>-78,17; 42,36</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-71,48; 53,78</t>
+          <t>-73,66; 58,34</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-82,56; 16,96</t>
+          <t>-79,45; 6,54</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-70,18; 83,77</t>
+          <t>-69,52; 89,61</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-92,71; 6,07</t>
+          <t>-93,36; 25,28</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-93,79; 4,51</t>
+          <t>-92,66; 19,41</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-67,41; 12,97</t>
+          <t>-66,49; 15,22</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-73,27; 1,13</t>
+          <t>-74,8; -1,47</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-80,88; -24,1</t>
+          <t>-81,18; -21,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A03-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP16A03-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-5,65</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-3,16</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>6,01</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,29</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,2; 12,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,24; 14,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,52; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,72; 7,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,18; 35,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,53; 31,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,34; 6,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,66; 16,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,05; 14,48</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,63%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,66%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,09%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>90,63%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,96%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,66%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,75%</t>
         </is>
       </c>
     </row>
@@ -821,12 +821,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 337,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 897,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,16</t>
+          <t>-1,75</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,52</t>
+          <t>-4,89</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,53</t>
+          <t>-3,94</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>-3,65</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>-5,47</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,65</t>
+          <t>-3,7</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,16</t>
+          <t>-2,75</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>-5,2</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>-3,84</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,98; 7,08</t>
+          <t>-7,13; 3,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,07; 36,85</t>
+          <t>-10,26; -1,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 29,59</t>
+          <t>-8,84; 0,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 12,38</t>
+          <t>-9,83; 1,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,32; 15,3</t>
+          <t>-11,22; -0,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-19,55; 0,0</t>
+          <t>-10,23; 0,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 6,8</t>
+          <t>-6,68; 1,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 13,68</t>
+          <t>-8,86; -1,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 13,18</t>
+          <t>-7,35; -0,31</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-47,66%</t>
+          <t>-29,19%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>53,09%</t>
+          <t>-81,69%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>83,49%</t>
+          <t>-65,79%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>-51,31%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-13,63%</t>
+          <t>-76,85%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-51,96%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-18,96%</t>
+          <t>-41,81%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>-79,07%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>-58,46%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,45; 157,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -1,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 50,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,33; 68,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 13,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,95; 36,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,21; 35,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,76; -30,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,12; -1,59</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,65</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-5,47</t>
+          <t>-2,87</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,65</t>
+          <t>-4,31</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,75</t>
+          <t>-3,2</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-4,89</t>
+          <t>5,36</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,62</t>
+          <t>-8,18</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-2,75</t>
+          <t>-2,57</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-5,2</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-3,62</t>
+          <t>-6,59</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 2,18</t>
+          <t>-11,15; 6,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,81; -0,72</t>
+          <t>-13,1; 4,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 1,5</t>
+          <t>-17,24; 0,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 3,28</t>
+          <t>-14,23; 5,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,66; -1,35</t>
+          <t>-5,46; 19,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 0,99</t>
+          <t>-19,24; -2,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 1,37</t>
+          <t>-9,55; 3,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,22; -2,12</t>
+          <t>-6,43; 9,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,65; -0,34</t>
+          <t>-14,06; -2,15</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-51,31%</t>
+          <t>-25,39%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-76,85%</t>
+          <t>-53,95%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-51,25%</t>
+          <t>-80,97%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-29,19%</t>
+          <t>-39,15%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-81,69%</t>
+          <t>65,47%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-60,46%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-41,81%</t>
+          <t>-36,39%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-79,07%</t>
+          <t>13,25%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-55,1%</t>
+          <t>-93,23%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-90,58; 104,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 44,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-84,16; 55,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-79,89; 146,55</t>
+          <t>-100,0; 396,04</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -13,54</t>
+          <t>-60,97; 635,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 76,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-73,97; 47,73</t>
+          <t>-85,5; 140,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-95,56; -40,27</t>
+          <t>-68,25; 369,44</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-82,01; 1,1</t>
+          <t>-100,0; inf</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,36</t>
+          <t>-3,94</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-8,18</t>
+          <t>-4,18</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>-3,47</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,87</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-4,28</t>
+          <t>-3,97</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-2,57</t>
+          <t>-2,47</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-6,56</t>
+          <t>-4,11</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-14,06; 5,51</t>
+          <t>-5,81; 2,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 17,93</t>
+          <t>-8,3; -0,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-18,78; -2,06</t>
+          <t>-8,28; -0,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-12,11; 5,95</t>
+          <t>-8,53; 0,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-15,36; 4,51</t>
+          <t>-7,33; 2,14</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-16,15; 0,99</t>
+          <t>-8,74; 0,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-10,03; 3,64</t>
+          <t>-5,74; 0,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 8,93</t>
+          <t>-6,42; -0,26</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-13,01; -2,01</t>
+          <t>-6,77; -1,21</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-39,15%</t>
+          <t>-23,2%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>65,47%</t>
+          <t>-67,84%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-71,93%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-25,39%</t>
+          <t>-47,42%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-53,95%</t>
+          <t>-31,07%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-80,53%</t>
+          <t>-54,33%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-36,39%</t>
+          <t>-37,34%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>13,25%</t>
+          <t>-48,15%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-92,88%</t>
+          <t>-62,25%</t>
         </is>
       </c>
     </row>
@@ -1439,282 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 367,66</t>
+          <t>-69,25; 90,41</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-67,51; 704,22</t>
+          <t>-93,58; -1,78</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,44; -0,94</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,6; 27,71</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,93; 53,09</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,56; 8,13</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-83,32; 154,9</t>
+          <t>-65,66; 5,89</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-66,08; 243,38</t>
+          <t>-76,52; -3,41</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 2,76</t>
+          <t>-81,62; -20,25</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-3,43</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-2,23</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-3,96</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-1,35</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-3,94</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-3,98</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>-2,45</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>-3,16</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>-3,98</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-7,96; 0,89</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-7,28; 2,59</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-7,97; -0,09</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-5,55; 2,7</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-8,5; -0,44</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-8,15; -0,47</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>-5,65; 0,61</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>-6,23; -0,25</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>-7,12; -1,58</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-47,16%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-30,72%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-54,45%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-23,2%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-67,84%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-68,49%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>-37,17%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>-48,01%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>-60,36%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-78,17; 42,36</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-73,66; 58,34</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-79,45; 6,54</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-69,52; 89,61</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-93,36; 25,28</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-92,66; 19,41</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>-66,49; 15,22</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>-74,8; -1,47</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>-81,18; -21,25</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
